--- a/Assets/PluginPackages/BakingSheetImpl/RawData/Level.xlsx
+++ b/Assets/PluginPackages/BakingSheetImpl/RawData/Level.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thanhdv/Unity/SimpleTowerDefend/Assets/PluginPackages/BakingSheetImpl/RawData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thanhdv/Unity/SimpleTowerDefense/Assets/PluginPackages/BakingSheetImpl/RawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95AD795-B743-6546-9C8D-2F5A7DB0FE5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1601866C-7D57-CB48-938B-3CD19C290332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36640" yWindow="520" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Levels" sheetId="1" r:id="rId1"/>
@@ -312,7 +312,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="38">
   <si>
     <t>Id</t>
   </si>
@@ -423,6 +423,9 @@
   </si>
   <si>
     <t>StartCoin</t>
+  </si>
+  <si>
+    <t>1.5</t>
   </si>
 </sst>
 </file>
@@ -815,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1108,10 +1111,10 @@
         <v>26</v>
       </c>
       <c r="F5" s="2">
-        <v>500</v>
+        <v>50000</v>
       </c>
       <c r="G5" s="2">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>8</v>
@@ -1131,8 +1134,8 @@
       <c r="M5" s="2">
         <v>10</v>
       </c>
-      <c r="N5" s="2">
-        <v>1.2</v>
+      <c r="N5" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="O5" s="2">
         <v>120</v>
@@ -1146,8 +1149,8 @@
       <c r="R5" s="2">
         <v>10</v>
       </c>
-      <c r="S5" s="2">
-        <v>1.2</v>
+      <c r="S5" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="T5" s="2" t="s">
         <v>33</v>
@@ -1158,8 +1161,8 @@
       <c r="V5" s="2">
         <v>10</v>
       </c>
-      <c r="W5" s="2">
-        <v>1.2</v>
+      <c r="W5" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="X5" s="2">
         <v>120</v>
@@ -1171,10 +1174,10 @@
         <v>1</v>
       </c>
       <c r="AA5" s="2">
-        <v>10</v>
-      </c>
-      <c r="AB5" s="2">
-        <v>1.2</v>
+        <v>100</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="AC5" s="2" t="s">
         <v>33</v>
@@ -1183,22 +1186,22 @@
         <v>1</v>
       </c>
       <c r="AE5" s="2">
-        <v>10</v>
-      </c>
-      <c r="AF5" s="2">
-        <v>1.2</v>
+        <v>100</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="AG5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="AH5" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI5" s="2">
-        <v>5</v>
-      </c>
-      <c r="AJ5" s="2">
-        <v>1.2</v>
+        <v>50</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/PluginPackages/BakingSheetImpl/RawData/Level.xlsx
+++ b/Assets/PluginPackages/BakingSheetImpl/RawData/Level.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thanhdv/Unity/SimpleTowerDefense/Assets/PluginPackages/BakingSheetImpl/RawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1601866C-7D57-CB48-938B-3CD19C290332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B64D11-61C1-694D-AEBF-6E620044B468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36640" yWindow="520" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Levels" sheetId="1" r:id="rId1"/>
@@ -392,9 +392,6 @@
     <t>Map_001</t>
   </si>
   <si>
-    <t>Map_002</t>
-  </si>
-  <si>
     <t>Towers</t>
   </si>
   <si>
@@ -426,6 +423,9 @@
   </si>
   <si>
     <t>1.5</t>
+  </si>
+  <si>
+    <t>Map_404</t>
   </si>
 </sst>
 </file>
@@ -819,7 +819,7 @@
   <dimension ref="A1:AK5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -850,13 +850,13 @@
         <v>24</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -868,7 +868,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
@@ -879,7 +879,7 @@
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
       <c r="Y1" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z1" s="4"/>
       <c r="AA1" s="4"/>
@@ -927,7 +927,7 @@
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
       <c r="T2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
@@ -942,13 +942,13 @@
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
       <c r="AC2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AD2" s="4"/>
       <c r="AE2" s="4"/>
       <c r="AF2" s="4"/>
       <c r="AG2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AH2" s="4"/>
       <c r="AI2" s="4"/>
@@ -1067,7 +1067,7 @@
         <v>9</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L4" s="2">
         <v>2</v>
@@ -1082,7 +1082,7 @@
         <v>100</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="2">
         <v>2</v>
@@ -1108,13 +1108,13 @@
         <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F5" s="2">
         <v>50000</v>
       </c>
       <c r="G5" s="2">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>8</v>
@@ -1126,7 +1126,7 @@
         <v>10</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L5" s="2">
         <v>1</v>
@@ -1135,13 +1135,13 @@
         <v>10</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O5" s="2">
         <v>120</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q5" s="2">
         <v>1</v>
@@ -1150,10 +1150,10 @@
         <v>10</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U5" s="2">
         <v>1</v>
@@ -1162,13 +1162,13 @@
         <v>10</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X5" s="2">
         <v>120</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z5" s="2">
         <v>1</v>
@@ -1177,10 +1177,10 @@
         <v>100</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AD5" s="2">
         <v>1</v>
@@ -1189,10 +1189,10 @@
         <v>100</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AH5" s="2">
         <v>2</v>
@@ -1201,22 +1201,11 @@
         <v>50</v>
       </c>
       <c r="AJ5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
     <mergeCell ref="AK2:AK3"/>
     <mergeCell ref="Y1:AK1"/>
     <mergeCell ref="P1:X1"/>
@@ -1226,6 +1215,17 @@
     <mergeCell ref="AG2:AJ2"/>
     <mergeCell ref="T2:W2"/>
     <mergeCell ref="P2:S2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:O3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
